--- a/Examples_3.45.xlsx
+++ b/Examples_3.45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhb35\Documents\data\investments\PycharmProjects\Investments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F34D055-2541-42D5-80C0-CF8D1EC71A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CE404B-96B3-4471-80E8-809030B3E024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17492,7 +17492,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17511,20 +17511,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>734</v>
-      </c>
       <c r="E2" s="242" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="218" t="s">
+      <c r="C3" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E3" s="242" t="s">
         <v>723</v>
       </c>
     </row>
